--- a/Output/ScenarioOptions.xlsx
+++ b/Output/ScenarioOptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Online for git\VME-Advice\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30EFC46-6E04-4C51-ADA7-796C856054B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1025D7-F347-4A20-86EB-3EE6F89BB3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="14016" xr2:uid="{B88E094A-1285-4A9C-BC39-EAEA194817A6}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{B88E094A-1285-4A9C-BC39-EAEA194817A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scenario</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>Management implication </t>
+  </si>
+  <si>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Scenario 1 option 2 and Scenario 2 option 1: C-squares with VME habitats as well as C-squares with medium and high VME indices and low VME index if MBGC fishing pressure is low (SAR &lt; 0.43), + C-squares that contain selected VME physical elements (banks, seamounts, coral mounds, mud volcanoes) associated with any VME indicator species records.</t>
+  </si>
+  <si>
+    <t>Prioritizes identification of VME polygons where they “are known to occur” or “ are likely to occur”, and includes C-squares with low VME Index where cumulative fishing activity is also low and SAIs by past fishing are less likely, this therefore offers potential VME protection at low cost to the fishery and highest potential protection of VMEs in the fishing footprint, as well as elements that are known to frequently contain VMEs, regardless of fishing activity.</t>
+  </si>
+  <si>
+    <t>scenario</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -102,12 +114,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39631850-6B22-45E5-8317-6AE9EE2A928A}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
@@ -501,6 +547,20 @@
       </c>
       <c r="D5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
